--- a/biology/Médecine/Aldebrandin_de_Sienne/Aldebrandin_de_Sienne.xlsx
+++ b/biology/Médecine/Aldebrandin_de_Sienne/Aldebrandin_de_Sienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aldebrandin de Sienne est un médecin italien qui vécut au XIIIe siècle, à l'époque où les universités européennes commencent à enseigner la médecine. Il est connu pour avoir écrit en français un traité d'hygiène composé en 1256 intitulé le Régime du corps[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aldebrandin de Sienne est un médecin italien qui vécut au XIIIe siècle, à l'époque où les universités européennes commencent à enseigner la médecine. Il est connu pour avoir écrit en français un traité d'hygiène composé en 1256 intitulé le Régime du corps,.
 Il a vécu à Troyes de 1277 (première apparition de son nom dans des actes notariés) jusqu'à sa mort, entre 1296 et 1299.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'auteur du Régime du corps, un ouvrage de médecine écrit en français, langue véhiculaire à l'époque. Le français n'était en effet pas la langue maternelle d'Aldebrandin.
 </t>
